--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44400</v>
+        <v>44421</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L4" t="n">
         <v>9000</v>
       </c>
-      <c r="L4" t="n">
-        <v>10000</v>
-      </c>
       <c r="M4" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44281</v>
+        <v>44400</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>5750</v>
+        <v>9500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44382</v>
+        <v>44281</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L6" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>7438</v>
+        <v>5750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,12 +811,84 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
       </c>
       <c r="R6" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>160</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7438</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>60</v>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L2" t="n">
         <v>8000</v>
       </c>
-      <c r="L2" t="n">
-        <v>9000</v>
-      </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44421</v>
+        <v>44281</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44362</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L5" t="n">
         <v>9000</v>
       </c>
-      <c r="L5" t="n">
-        <v>10000</v>
-      </c>
       <c r="M5" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44281</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44382</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>7438</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44242</v>
+        <v>44362</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44281</v>
+        <v>44421</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44362</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44281</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44382</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>7438</v>
+        <v>9500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44362</v>
+        <v>44281</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M3" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44421</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L4" t="n">
         <v>8000</v>
       </c>
-      <c r="L4" t="n">
-        <v>9000</v>
-      </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44281</v>
+        <v>44362</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44242</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44494</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44362</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
         <v>8000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44242</v>
+        <v>44362</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,12 +883,84 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
       </c>
       <c r="R7" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>160</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>60</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44362</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L2" t="n">
         <v>9000</v>
       </c>
-      <c r="L2" t="n">
-        <v>10000</v>
-      </c>
       <c r="M2" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44281</v>
+        <v>44382</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>5750</v>
+        <v>7438</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44281</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L4" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>7438</v>
+        <v>5750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44494</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
         <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M5" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44362</v>
+        <v>44494</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44362</v>
+        <v>44281</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44382</v>
+        <v>44494</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M3" t="n">
-        <v>7438</v>
+        <v>5500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44281</v>
+        <v>44421</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44362</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L6" t="n">
         <v>9000</v>
       </c>
-      <c r="L6" t="n">
-        <v>10000</v>
-      </c>
       <c r="M6" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44494</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>5500</v>
+        <v>7438</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44421</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44281</v>
+        <v>44382</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>5750</v>
+        <v>7438</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44494</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44421</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
         <v>8000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44400</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44362</v>
+        <v>44281</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44382</v>
+        <v>44242</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M7" t="n">
-        <v>7438</v>
+        <v>5250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44494</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44382</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>7438</v>
+        <v>9500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44421</v>
+        <v>44242</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M3" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44494</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L5" t="n">
         <v>9000</v>
       </c>
-      <c r="L5" t="n">
-        <v>10000</v>
-      </c>
       <c r="M5" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44281</v>
+        <v>44362</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44242</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>5250</v>
+        <v>7438</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44494</v>
+        <v>44281</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L8" t="n">
         <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44382</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>9500</v>
+        <v>7438</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44242</v>
+        <v>44281</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L3" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M3" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44494</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44362</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
         <v>8000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44382</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>7438</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44281</v>
+        <v>44494</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
         <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44382</v>
+        <v>44281</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M2" t="n">
-        <v>7438</v>
+        <v>5750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44281</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44494</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44494</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M8" t="n">
-        <v>5500</v>
+        <v>7438</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44589</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44362</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44242</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M6" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44382</v>
+        <v>44494</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>7438</v>
+        <v>5500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,12 +955,84 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
       </c>
       <c r="R8" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>160</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7438</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>60</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44281</v>
+        <v>44589</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K2" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L2" t="n">
         <v>6000</v>
       </c>
       <c r="M2" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44421</v>
+        <v>44382</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L3" t="n">
         <v>8000</v>
       </c>
-      <c r="L3" t="n">
-        <v>9000</v>
-      </c>
       <c r="M3" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44589</v>
+        <v>44242</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
         <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M4" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44362</v>
+        <v>44494</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44242</v>
+        <v>44281</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L6" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44494</v>
+        <v>44362</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44382</v>
+        <v>44421</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>7438</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44242</v>
+        <v>44603</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L4" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44494</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
         <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M5" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44281</v>
+        <v>44494</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
         <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44281</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44362</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44421</v>
+        <v>44362</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
         <v>8000</v>
@@ -1033,6 +1033,78 @@
         <v>60</v>
       </c>
       <c r="R9" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44421</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>142</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>60</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44362</v>
+        <v>44627</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44362</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
         <v>8000</v>
@@ -1105,6 +1105,78 @@
         <v>60</v>
       </c>
       <c r="R10" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44421</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>142</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>60</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44589</v>
+        <v>44648</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L2" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44382</v>
+        <v>44589</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M3" t="n">
-        <v>7438</v>
+        <v>5500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44603</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M4" t="n">
-        <v>5750</v>
+        <v>7438</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44603</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L5" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44494</v>
+        <v>44242</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
         <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M6" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44281</v>
+        <v>44494</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
         <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44281</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44627</v>
+        <v>44400</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L9" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>4250</v>
+        <v>9500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44362</v>
+        <v>44627</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44421</v>
+        <v>44362</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
         <v>8000</v>
@@ -1177,6 +1177,78 @@
         <v>60</v>
       </c>
       <c r="R11" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44421</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>142</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>60</v>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44648</v>
+        <v>44362</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44589</v>
+        <v>44494</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
         <v>5000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44400</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>7438</v>
+        <v>9500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44603</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44494</v>
+        <v>44603</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L7" t="n">
         <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44281</v>
+        <v>44627</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M8" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44400</v>
+        <v>44648</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44627</v>
+        <v>44281</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L10" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M10" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L11" t="n">
         <v>8000</v>
       </c>
-      <c r="L11" t="n">
-        <v>9000</v>
-      </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44421</v>
+        <v>44589</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44362</v>
+        <v>44281</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44494</v>
+        <v>44657</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
         <v>5000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M3" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44400</v>
+        <v>44494</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44627</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44242</v>
+        <v>44589</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K6" t="n">
         <v>5000</v>
       </c>
       <c r="L6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M6" t="n">
         <v>5500</v>
       </c>
-      <c r="M6" t="n">
-        <v>5250</v>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44603</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>5750</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44627</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M8" t="n">
-        <v>4250</v>
+        <v>7438</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44648</v>
+        <v>44421</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44281</v>
+        <v>44648</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L10" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44362</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>7438</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44589</v>
+        <v>44603</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L12" t="n">
         <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,12 +1243,84 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
       </c>
       <c r="R12" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>160</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>60</v>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44421</v>
+        <v>44669</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>4750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44648</v>
+        <v>44421</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44362</v>
+        <v>44648</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44603</v>
+        <v>44362</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44242</v>
+        <v>44603</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L13" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M13" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,12 +1315,84 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
       </c>
       <c r="R13" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>160</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>60</v>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44494</v>
+        <v>44676</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M4" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44627</v>
+        <v>44494</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44589</v>
+        <v>44627</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M6" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44589</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44382</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>7438</v>
+        <v>9500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44669</v>
+        <v>44382</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>4750</v>
+        <v>7438</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44669</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>4750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44648</v>
+        <v>44421</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44362</v>
+        <v>44648</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44603</v>
+        <v>44362</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44242</v>
+        <v>44603</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L14" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,12 +1387,84 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
       </c>
       <c r="R14" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>160</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>60</v>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44281</v>
+        <v>44362</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44657</v>
+        <v>44589</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,17 +573,17 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K3" t="n">
         <v>5000</v>
       </c>
       <c r="L3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M3" t="n">
         <v>5500</v>
       </c>
-      <c r="M3" t="n">
-        <v>5250</v>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44676</v>
+        <v>44603</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L4" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44494</v>
+        <v>44669</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K5" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L5" t="n">
         <v>5000</v>
       </c>
-      <c r="L5" t="n">
-        <v>6000</v>
-      </c>
       <c r="M5" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44627</v>
+        <v>44676</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44589</v>
+        <v>44281</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L7" t="n">
         <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44242</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M8" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44382</v>
+        <v>44657</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M9" t="n">
-        <v>7438</v>
+        <v>5250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44669</v>
+        <v>44494</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M10" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44421</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L11" t="n">
         <v>8000</v>
       </c>
-      <c r="L11" t="n">
-        <v>9000</v>
-      </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44648</v>
+        <v>44400</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44362</v>
+        <v>44627</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44603</v>
+        <v>44648</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44362</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>8000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44589</v>
+        <v>44362</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44603</v>
+        <v>44400</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>5750</v>
+        <v>9500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44669</v>
+        <v>44676</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L5" t="n">
         <v>4500</v>
       </c>
-      <c r="L5" t="n">
-        <v>5000</v>
-      </c>
       <c r="M5" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44676</v>
+        <v>44648</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44281</v>
+        <v>44242</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L7" t="n">
         <v>5500</v>
       </c>
-      <c r="L7" t="n">
-        <v>6000</v>
-      </c>
       <c r="M7" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44242</v>
+        <v>44627</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L8" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M8" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44657</v>
+        <v>44494</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,17 +1005,17 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
         <v>5000</v>
       </c>
       <c r="L9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M9" t="n">
         <v>5500</v>
       </c>
-      <c r="M9" t="n">
-        <v>5250</v>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44494</v>
+        <v>44657</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
         <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M10" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44589</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>7438</v>
+        <v>5500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44400</v>
+        <v>44281</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44627</v>
+        <v>44603</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L13" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M13" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44648</v>
+        <v>44382</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>6750</v>
+        <v>7438</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44421</v>
+        <v>44669</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>4750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44676</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44362</v>
+        <v>44657</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M3" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44400</v>
+        <v>44494</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44676</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44648</v>
+        <v>44362</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44242</v>
+        <v>44589</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,17 +861,17 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K7" t="n">
         <v>5000</v>
       </c>
       <c r="L7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M7" t="n">
         <v>5500</v>
       </c>
-      <c r="M7" t="n">
-        <v>5250</v>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44494</v>
+        <v>44242</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
         <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M9" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44657</v>
+        <v>44400</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44589</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>5500</v>
+        <v>7438</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44603</v>
+        <v>44669</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K13" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L13" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M13" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44382</v>
+        <v>44603</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>7438</v>
+        <v>5750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44669</v>
+        <v>44648</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L15" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44676</v>
+        <v>44657</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L2" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M2" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44657</v>
+        <v>44589</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,17 +573,17 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K3" t="n">
         <v>5000</v>
       </c>
       <c r="L3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M3" t="n">
         <v>5500</v>
       </c>
-      <c r="M3" t="n">
-        <v>5250</v>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44494</v>
+        <v>44242</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
         <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M4" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44382</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L5" t="n">
         <v>8000</v>
       </c>
-      <c r="L5" t="n">
-        <v>9000</v>
-      </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44362</v>
+        <v>44669</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>4750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44589</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44627</v>
+        <v>44362</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44242</v>
+        <v>44281</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L9" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44400</v>
+        <v>44676</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44648</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L11" t="n">
         <v>7000</v>
       </c>
-      <c r="L11" t="n">
-        <v>8000</v>
-      </c>
       <c r="M11" t="n">
-        <v>7438</v>
+        <v>6750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44281</v>
+        <v>44603</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
         <v>5500</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44669</v>
+        <v>44627</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L13" t="n">
         <v>4500</v>
       </c>
-      <c r="L13" t="n">
-        <v>5000</v>
-      </c>
       <c r="M13" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44603</v>
+        <v>44494</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L14" t="n">
         <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44648</v>
+        <v>44421</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44657</v>
+        <v>44242</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
         <v>5000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44589</v>
+        <v>44400</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44242</v>
+        <v>44676</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L4" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M4" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44382</v>
+        <v>44648</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L5" t="n">
         <v>7000</v>
       </c>
-      <c r="L5" t="n">
-        <v>8000</v>
-      </c>
       <c r="M5" t="n">
-        <v>7438</v>
+        <v>6750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44669</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44494</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44281</v>
+        <v>44627</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L9" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M9" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44676</v>
+        <v>44382</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>4250</v>
+        <v>7438</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44648</v>
+        <v>44657</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M11" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44603</v>
+        <v>44281</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
         <v>5500</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44627</v>
+        <v>44589</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K13" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L13" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M13" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44494</v>
+        <v>44669</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K14" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L14" t="n">
         <v>5000</v>
       </c>
-      <c r="L14" t="n">
-        <v>6000</v>
-      </c>
       <c r="M14" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44421</v>
+        <v>44603</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44242</v>
+        <v>44676</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L2" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M2" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44400</v>
+        <v>44627</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M3" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44676</v>
+        <v>44281</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L4" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44648</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M5" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44669</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>4750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44494</v>
+        <v>44648</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L7" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44362</v>
+        <v>44657</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44627</v>
+        <v>44589</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44382</v>
+        <v>44603</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L10" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M10" t="n">
-        <v>7438</v>
+        <v>5750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44657</v>
+        <v>44400</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44281</v>
+        <v>44362</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44589</v>
+        <v>44382</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>5500</v>
+        <v>7438</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44669</v>
+        <v>44494</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44603</v>
+        <v>44421</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44589</v>
+        <v>44740</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44603</v>
+        <v>44589</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K10" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
         <v>6000</v>
       </c>
       <c r="M10" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44400</v>
+        <v>44603</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44362</v>
+        <v>44400</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44382</v>
+        <v>44362</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>7438</v>
+        <v>8500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44494</v>
+        <v>44382</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>5500</v>
+        <v>7438</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44421</v>
+        <v>44494</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,12 +1459,84 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
       </c>
       <c r="R15" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44421</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>142</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>60</v>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44676</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>4250</v>
+        <v>9500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44627</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44281</v>
+        <v>44657</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L4" t="n">
         <v>5500</v>
       </c>
-      <c r="L4" t="n">
-        <v>6000</v>
-      </c>
       <c r="M4" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44740</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44648</v>
+        <v>44676</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M7" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44657</v>
+        <v>44242</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
         <v>5000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44740</v>
+        <v>44648</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L9" t="n">
         <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44589</v>
+        <v>44281</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L10" t="n">
         <v>6000</v>
       </c>
       <c r="M10" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44400</v>
+        <v>44494</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L13" t="n">
         <v>8000</v>
       </c>
-      <c r="L13" t="n">
-        <v>9000</v>
-      </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44382</v>
+        <v>44589</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>7438</v>
+        <v>5500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44494</v>
+        <v>44362</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44421</v>
+        <v>44627</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44669</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>9500</v>
+        <v>4750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44421</v>
+        <v>44760</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K3" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M3" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44657</v>
+        <v>44740</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L4" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44740</v>
+        <v>44589</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L5" t="n">
         <v>6000</v>
       </c>
-      <c r="L5" t="n">
-        <v>7000</v>
-      </c>
       <c r="M5" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44669</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44676</v>
+        <v>44281</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L7" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44242</v>
+        <v>44603</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L8" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44648</v>
+        <v>44242</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M9" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44281</v>
+        <v>44627</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44603</v>
+        <v>44648</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44494</v>
+        <v>44676</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M12" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44589</v>
+        <v>44421</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44362</v>
+        <v>44494</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44627</v>
+        <v>44362</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,12 +1531,84 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
       </c>
       <c r="R16" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>60</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44760</v>
+        <v>44764</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,17 +573,17 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
         <v>7000</v>
       </c>
       <c r="L3" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M3" t="n">
         <v>7500</v>
       </c>
-      <c r="M3" t="n">
-        <v>7250</v>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44740</v>
+        <v>44760</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K4" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M4" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44589</v>
+        <v>44740</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44589</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44281</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>5750</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44603</v>
+        <v>44281</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
         <v>5500</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44242</v>
+        <v>44603</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L9" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44627</v>
+        <v>44242</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M10" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44648</v>
+        <v>44627</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M11" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44676</v>
+        <v>44648</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L12" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44382</v>
+        <v>44676</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M13" t="n">
-        <v>7438</v>
+        <v>4250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44421</v>
+        <v>44382</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L14" t="n">
         <v>8000</v>
       </c>
-      <c r="L14" t="n">
-        <v>9000</v>
-      </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44494</v>
+        <v>44421</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44362</v>
+        <v>44494</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44657</v>
+        <v>44362</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,12 +1603,84 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
       </c>
       <c r="R17" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>60</v>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44494</v>
+        <v>44785</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44362</v>
+        <v>44494</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44657</v>
+        <v>44362</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,12 +1675,84 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
       </c>
       <c r="R18" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>60</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44669</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44764</v>
+        <v>44603</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44760</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>7250</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44740</v>
+        <v>44760</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M5" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44589</v>
+        <v>44494</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
         <v>5000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44281</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44281</v>
+        <v>44740</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44603</v>
+        <v>44785</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44242</v>
+        <v>44657</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
         <v>5000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44627</v>
+        <v>44676</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44648</v>
+        <v>44627</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M12" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44676</v>
+        <v>44764</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>4250</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44382</v>
+        <v>44648</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L14" t="n">
         <v>7000</v>
       </c>
-      <c r="L14" t="n">
-        <v>8000</v>
-      </c>
       <c r="M14" t="n">
-        <v>7438</v>
+        <v>6750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44421</v>
+        <v>44242</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44785</v>
+        <v>44421</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44494</v>
+        <v>44669</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K17" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L17" t="n">
         <v>5000</v>
       </c>
-      <c r="L17" t="n">
-        <v>6000</v>
-      </c>
       <c r="M17" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44362</v>
+        <v>44589</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M18" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44657</v>
+        <v>44382</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L19" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>5250</v>
+        <v>7438</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44657</v>
+        <v>44827</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44676</v>
+        <v>44657</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M11" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44627</v>
+        <v>44676</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44764</v>
+        <v>44627</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>4250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44648</v>
+        <v>44764</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44242</v>
+        <v>44648</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L15" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44421</v>
+        <v>44242</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44669</v>
+        <v>44421</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44589</v>
+        <v>44669</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K18" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L18" t="n">
         <v>5000</v>
       </c>
-      <c r="L18" t="n">
-        <v>6000</v>
-      </c>
       <c r="M18" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44382</v>
+        <v>44589</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K19" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M19" t="n">
-        <v>7438</v>
+        <v>5500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,12 +1747,84 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
       </c>
       <c r="R19" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>160</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>7438</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>60</v>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44242</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M2" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44603</v>
+        <v>44827</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44764</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>120</v>
       </c>
       <c r="K4" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L4" t="n">
         <v>8000</v>
       </c>
-      <c r="L4" t="n">
-        <v>9000</v>
-      </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44760</v>
+        <v>44400</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44494</v>
+        <v>44669</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K6" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L6" t="n">
         <v>5000</v>
       </c>
-      <c r="L6" t="n">
-        <v>6000</v>
-      </c>
       <c r="M6" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44281</v>
+        <v>44785</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K7" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44740</v>
+        <v>44362</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44785</v>
+        <v>44648</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L9" t="n">
         <v>7000</v>
       </c>
-      <c r="L9" t="n">
-        <v>8000</v>
-      </c>
       <c r="M9" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44827</v>
+        <v>44760</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M10" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44676</v>
+        <v>44494</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44627</v>
+        <v>44603</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L13" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M13" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44764</v>
+        <v>44740</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L14" t="n">
         <v>7000</v>
       </c>
-      <c r="L14" t="n">
-        <v>8000</v>
-      </c>
       <c r="M14" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44648</v>
+        <v>44589</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K15" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>6750</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44242</v>
+        <v>44281</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L16" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M16" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44421</v>
+        <v>44676</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44669</v>
+        <v>44382</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>4750</v>
+        <v>7438</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44589</v>
+        <v>44627</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L19" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M19" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44382</v>
+        <v>44421</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>7438</v>
+        <v>8500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44242</v>
+        <v>44785</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K2" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44827</v>
+        <v>44764</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44764</v>
+        <v>44740</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>120</v>
       </c>
       <c r="K4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L4" t="n">
         <v>7000</v>
       </c>
-      <c r="L4" t="n">
-        <v>8000</v>
-      </c>
       <c r="M4" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44648</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44669</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44785</v>
+        <v>44421</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44362</v>
+        <v>44827</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44648</v>
+        <v>44589</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K9" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>6750</v>
+        <v>5500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44760</v>
+        <v>44676</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44657</v>
+        <v>44281</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L11" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44494</v>
+        <v>44657</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
         <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M12" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44603</v>
+        <v>44242</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L13" t="n">
         <v>5500</v>
       </c>
-      <c r="L13" t="n">
-        <v>6000</v>
-      </c>
       <c r="M13" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44740</v>
+        <v>44760</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44589</v>
+        <v>44382</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>7438</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44281</v>
+        <v>44669</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L16" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M16" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44676</v>
+        <v>44494</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M17" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44382</v>
+        <v>44627</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M18" t="n">
-        <v>7438</v>
+        <v>4250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44627</v>
+        <v>44603</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L19" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M19" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44421</v>
+        <v>44362</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
         <v>8000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44785</v>
+        <v>44362</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44764</v>
+        <v>44589</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44740</v>
+        <v>44827</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44648</v>
+        <v>44494</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>6750</v>
+        <v>5500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44785</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44421</v>
+        <v>44676</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44827</v>
+        <v>44603</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L8" t="n">
         <v>6000</v>
       </c>
-      <c r="L8" t="n">
-        <v>7000</v>
-      </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44589</v>
+        <v>44760</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M9" t="n">
-        <v>5500</v>
+        <v>7250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44676</v>
+        <v>44648</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L10" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44281</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>5750</v>
+        <v>7438</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44657</v>
+        <v>44740</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44242</v>
+        <v>44669</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K13" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L13" t="n">
         <v>5000</v>
       </c>
-      <c r="L13" t="n">
-        <v>5500</v>
-      </c>
       <c r="M13" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44760</v>
+        <v>44764</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,17 +1365,17 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
         <v>7000</v>
       </c>
       <c r="L14" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M14" t="n">
         <v>7500</v>
       </c>
-      <c r="M14" t="n">
-        <v>7250</v>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44382</v>
+        <v>44627</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M15" t="n">
-        <v>7438</v>
+        <v>4250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44669</v>
+        <v>44281</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L16" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M16" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44494</v>
+        <v>44421</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44627</v>
+        <v>44657</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M18" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44603</v>
+        <v>44242</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L19" t="n">
         <v>5500</v>
       </c>
-      <c r="L19" t="n">
-        <v>6000</v>
-      </c>
       <c r="M19" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44362</v>
+        <v>44400</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1800,13 +1800,13 @@
         <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44362</v>
+        <v>44627</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44589</v>
+        <v>44382</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>5500</v>
+        <v>7438</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44827</v>
+        <v>44494</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>120</v>
       </c>
       <c r="K4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L4" t="n">
         <v>6000</v>
       </c>
-      <c r="L4" t="n">
-        <v>7000</v>
-      </c>
       <c r="M4" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44494</v>
+        <v>44740</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44785</v>
+        <v>44648</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L6" t="n">
         <v>7000</v>
       </c>
-      <c r="L6" t="n">
-        <v>8000</v>
-      </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44676</v>
+        <v>44242</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M7" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44603</v>
+        <v>44669</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K8" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M8" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44760</v>
+        <v>44603</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L9" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44648</v>
+        <v>44657</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M10" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44676</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M11" t="n">
-        <v>7438</v>
+        <v>4250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44740</v>
+        <v>44400</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44669</v>
+        <v>44827</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>4750</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44764</v>
+        <v>44760</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K14" t="n">
         <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M14" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44627</v>
+        <v>44764</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>4250</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44281</v>
+        <v>44785</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44421</v>
+        <v>44589</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44657</v>
+        <v>44421</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1656,13 +1656,13 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44242</v>
+        <v>44362</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44400</v>
+        <v>44281</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1800,13 +1800,13 @@
         <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M20" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44627</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44382</v>
+        <v>44627</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M3" t="n">
-        <v>7438</v>
+        <v>4250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44494</v>
+        <v>44648</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44740</v>
+        <v>44764</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M5" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44648</v>
+        <v>44760</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M6" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44242</v>
+        <v>44827</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L7" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44669</v>
+        <v>44242</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M8" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44603</v>
+        <v>44676</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L9" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M9" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44657</v>
+        <v>44362</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44676</v>
+        <v>44603</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L11" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44400</v>
+        <v>44494</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44827</v>
+        <v>44657</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44760</v>
+        <v>44281</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L14" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44764</v>
+        <v>44785</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K15" t="n">
         <v>7000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44785</v>
+        <v>44669</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M16" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44589</v>
+        <v>44740</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L17" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44421</v>
+        <v>44400</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L19" t="n">
         <v>8000</v>
       </c>
-      <c r="L19" t="n">
-        <v>9000</v>
-      </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44281</v>
+        <v>44589</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K20" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
         <v>6000</v>
       </c>
       <c r="M20" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44764</v>
+        <v>44935</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L5" t="n">
         <v>7000</v>
       </c>
-      <c r="L5" t="n">
-        <v>8000</v>
-      </c>
       <c r="M5" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44760</v>
+        <v>44764</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
         <v>7000</v>
       </c>
       <c r="L6" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M6" t="n">
         <v>7500</v>
       </c>
-      <c r="M6" t="n">
-        <v>7250</v>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44827</v>
+        <v>44760</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K7" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M7" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44242</v>
+        <v>44827</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44676</v>
+        <v>44242</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M9" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44362</v>
+        <v>44676</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44603</v>
+        <v>44362</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44494</v>
+        <v>44603</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L12" t="n">
         <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44657</v>
+        <v>44494</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,17 +1293,17 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
         <v>5000</v>
       </c>
       <c r="L13" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M13" t="n">
         <v>5500</v>
       </c>
-      <c r="M13" t="n">
-        <v>5250</v>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44281</v>
+        <v>44657</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L14" t="n">
         <v>5500</v>
       </c>
-      <c r="L14" t="n">
-        <v>6000</v>
-      </c>
       <c r="M14" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44785</v>
+        <v>44281</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44669</v>
+        <v>44785</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44740</v>
+        <v>44669</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K17" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M17" t="n">
-        <v>6500</v>
+        <v>4750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44400</v>
+        <v>44740</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1656,13 +1656,13 @@
         <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44382</v>
+        <v>44400</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>7438</v>
+        <v>9500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44589</v>
+        <v>44382</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>5500</v>
+        <v>7438</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,12 +1819,84 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
       </c>
       <c r="R20" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44589</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>110</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>60</v>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44676</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44627</v>
+        <v>44657</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L3" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M3" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44935</v>
+        <v>44281</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L5" t="n">
         <v>6000</v>
       </c>
-      <c r="L5" t="n">
-        <v>7000</v>
-      </c>
       <c r="M5" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44764</v>
+        <v>44935</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L6" t="n">
         <v>7000</v>
       </c>
-      <c r="L6" t="n">
-        <v>8000</v>
-      </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44760</v>
+        <v>44785</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -867,11 +867,11 @@
         <v>7000</v>
       </c>
       <c r="L7" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M7" t="n">
         <v>7500</v>
       </c>
-      <c r="M7" t="n">
-        <v>7250</v>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44827</v>
+        <v>44362</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44242</v>
+        <v>44400</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L9" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44676</v>
+        <v>44421</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44362</v>
+        <v>44603</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44603</v>
+        <v>44740</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44494</v>
+        <v>44764</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44657</v>
+        <v>44669</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K14" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L14" t="n">
         <v>5000</v>
       </c>
-      <c r="L14" t="n">
-        <v>5500</v>
-      </c>
       <c r="M14" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44281</v>
+        <v>44589</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K15" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
         <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44785</v>
+        <v>44242</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M16" t="n">
-        <v>7500</v>
+        <v>5250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44669</v>
+        <v>44494</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M17" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44740</v>
+        <v>44760</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44400</v>
+        <v>44627</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1728,13 +1728,13 @@
         <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M19" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44589</v>
+        <v>44827</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44676</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44657</v>
+        <v>44627</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L3" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M3" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44281</v>
+        <v>44935</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44935</v>
+        <v>44764</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44785</v>
+        <v>44760</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -867,10 +867,10 @@
         <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M7" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44362</v>
+        <v>44827</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44400</v>
+        <v>44242</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M9" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44676</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44603</v>
+        <v>44362</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44740</v>
+        <v>44603</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L12" t="n">
         <v>6000</v>
       </c>
-      <c r="L12" t="n">
-        <v>7000</v>
-      </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44764</v>
+        <v>44494</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44669</v>
+        <v>44657</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M14" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44589</v>
+        <v>44281</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L15" t="n">
         <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44242</v>
+        <v>44785</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44494</v>
+        <v>44669</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K17" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L17" t="n">
         <v>5000</v>
       </c>
-      <c r="L17" t="n">
-        <v>6000</v>
-      </c>
       <c r="M17" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44760</v>
+        <v>44740</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L18" t="n">
         <v>7000</v>
       </c>
-      <c r="L18" t="n">
-        <v>7500</v>
-      </c>
       <c r="M18" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44627</v>
+        <v>44400</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1728,13 +1728,13 @@
         <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>4250</v>
+        <v>9500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44827</v>
+        <v>44589</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L21" t="n">
         <v>6000</v>
       </c>
-      <c r="L21" t="n">
-        <v>7000</v>
-      </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44676</v>
+        <v>44740</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44657</v>
+        <v>44627</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L3" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M3" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44648</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M4" t="n">
-        <v>6750</v>
+        <v>7438</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44281</v>
+        <v>44362</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44935</v>
+        <v>44603</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L6" t="n">
         <v>6000</v>
       </c>
-      <c r="L6" t="n">
-        <v>7000</v>
-      </c>
       <c r="M6" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44785</v>
+        <v>44669</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>130</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M7" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44362</v>
+        <v>44785</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K8" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L8" t="n">
         <v>8000</v>
       </c>
-      <c r="L8" t="n">
-        <v>9000</v>
-      </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44400</v>
+        <v>44242</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M9" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44676</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44603</v>
+        <v>44760</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K11" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M11" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44740</v>
+        <v>44589</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L12" t="n">
         <v>6000</v>
       </c>
-      <c r="L12" t="n">
-        <v>7000</v>
-      </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44764</v>
+        <v>44400</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44669</v>
+        <v>44648</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44589</v>
+        <v>44827</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44494</v>
+        <v>44764</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L17" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44760</v>
+        <v>44494</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M18" t="n">
-        <v>7250</v>
+        <v>5500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44627</v>
+        <v>44935</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1728,13 +1728,13 @@
         <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44382</v>
+        <v>44281</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L20" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M20" t="n">
-        <v>7438</v>
+        <v>5750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44827</v>
+        <v>44657</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44627</v>
+        <v>44963</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K3" t="n">
         <v>4000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44627</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L4" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M4" t="n">
-        <v>7438</v>
+        <v>4250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L5" t="n">
         <v>8000</v>
       </c>
-      <c r="L5" t="n">
-        <v>9000</v>
-      </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44603</v>
+        <v>44362</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44669</v>
+        <v>44603</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44785</v>
+        <v>44669</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>130</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L8" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M8" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44242</v>
+        <v>44785</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44676</v>
+        <v>44242</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M10" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44760</v>
+        <v>44676</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L11" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M11" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44589</v>
+        <v>44760</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M12" t="n">
-        <v>5500</v>
+        <v>7250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44400</v>
+        <v>44589</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M13" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44648</v>
+        <v>44400</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44827</v>
+        <v>44648</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L15" t="n">
         <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44421</v>
+        <v>44827</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44764</v>
+        <v>44421</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44494</v>
+        <v>44764</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1656,13 +1656,13 @@
         <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44935</v>
+        <v>44494</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1728,13 +1728,13 @@
         <v>120</v>
       </c>
       <c r="K19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L19" t="n">
         <v>6000</v>
       </c>
-      <c r="L19" t="n">
-        <v>7000</v>
-      </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44281</v>
+        <v>44935</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1800,13 +1800,13 @@
         <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,58 +1845,130 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
+        <v>44281</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>120</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>96</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>60</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>44657</v>
       </c>
-      <c r="E21" t="n">
-        <v>15</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100112001</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Berenjena</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
+      <c r="E22" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
         <v>100</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K22" t="n">
         <v>5000</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>5500</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M22" t="n">
         <v>5250</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>$/caja 60 unidades</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
         <v>88</v>
       </c>
-      <c r="Q21" t="n">
-        <v>60</v>
-      </c>
-      <c r="R21" t="inlineStr">
+      <c r="Q22" t="n">
+        <v>60</v>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44785</v>
+        <v>44967</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>7500</v>
+        <v>4850</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="Q9" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44242</v>
+        <v>44785</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44676</v>
+        <v>44242</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M11" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44760</v>
+        <v>44676</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M12" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44589</v>
+        <v>44760</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K13" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M13" t="n">
-        <v>5500</v>
+        <v>7250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44400</v>
+        <v>44589</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K14" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44648</v>
+        <v>44400</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44827</v>
+        <v>44648</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L16" t="n">
         <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44421</v>
+        <v>44827</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44764</v>
+        <v>44421</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44494</v>
+        <v>44764</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1728,13 +1728,13 @@
         <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L19" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44935</v>
+        <v>44494</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1800,13 +1800,13 @@
         <v>120</v>
       </c>
       <c r="K20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L20" t="n">
         <v>6000</v>
       </c>
-      <c r="L20" t="n">
-        <v>7000</v>
-      </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44281</v>
+        <v>44935</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1872,13 +1872,13 @@
         <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44657</v>
+        <v>44281</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L22" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M22" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,12 +1963,84 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
       </c>
       <c r="R22" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>60</v>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44740</v>
+        <v>44648</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L2" t="n">
         <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44963</v>
+        <v>44760</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>130</v>
       </c>
       <c r="K3" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M3" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44627</v>
+        <v>44603</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L4" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44382</v>
+        <v>44494</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>7438</v>
+        <v>5500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44362</v>
+        <v>44935</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44603</v>
+        <v>44827</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L7" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44669</v>
+        <v>44967</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,11 +929,11 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
         <v>4500</v>
@@ -942,11 +942,11 @@
         <v>5000</v>
       </c>
       <c r="M8" t="n">
-        <v>4750</v>
+        <v>4850</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="Q8" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44967</v>
+        <v>44764</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>4850</v>
+        <v>7500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="Q9" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44785</v>
+        <v>44740</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L10" t="n">
         <v>7000</v>
       </c>
-      <c r="L10" t="n">
-        <v>8000</v>
-      </c>
       <c r="M10" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44242</v>
+        <v>44362</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44676</v>
+        <v>44657</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M12" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44760</v>
+        <v>44281</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L13" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M13" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44589</v>
+        <v>44669</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K14" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L14" t="n">
         <v>5000</v>
       </c>
-      <c r="L14" t="n">
-        <v>6000</v>
-      </c>
       <c r="M14" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44400</v>
+        <v>44963</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M15" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44648</v>
+        <v>44785</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44827</v>
+        <v>44400</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44421</v>
+        <v>44676</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M18" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44764</v>
+        <v>44627</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1728,13 +1728,13 @@
         <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M19" t="n">
-        <v>7500</v>
+        <v>4250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44494</v>
+        <v>44421</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44935</v>
+        <v>44382</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>7438</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44281</v>
+        <v>44589</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K22" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L22" t="n">
         <v>6000</v>
       </c>
       <c r="M22" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44657</v>
+        <v>44242</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K23" t="n">
         <v>5000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44648</v>
+        <v>44827</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
         <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44760</v>
+        <v>44648</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L3" t="n">
         <v>7000</v>
       </c>
-      <c r="L3" t="n">
-        <v>7500</v>
-      </c>
       <c r="M3" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44603</v>
+        <v>44421</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44494</v>
+        <v>44627</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M5" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44935</v>
+        <v>44603</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L6" t="n">
         <v>6000</v>
       </c>
-      <c r="L6" t="n">
-        <v>7000</v>
-      </c>
       <c r="M6" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44827</v>
+        <v>44785</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K7" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44967</v>
+        <v>44589</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K8" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>4850</v>
+        <v>5500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="Q8" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44764</v>
+        <v>44740</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>120</v>
       </c>
       <c r="K9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L9" t="n">
         <v>7000</v>
       </c>
-      <c r="L9" t="n">
-        <v>8000</v>
-      </c>
       <c r="M9" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44740</v>
+        <v>44362</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L11" t="n">
         <v>8000</v>
       </c>
-      <c r="L11" t="n">
-        <v>9000</v>
-      </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44657</v>
+        <v>44281</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L12" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44281</v>
+        <v>44935</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44669</v>
+        <v>44967</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
         <v>4500</v>
@@ -1374,11 +1374,11 @@
         <v>5000</v>
       </c>
       <c r="M14" t="n">
-        <v>4750</v>
+        <v>4850</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="Q14" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44963</v>
+        <v>44494</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44785</v>
+        <v>44400</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M16" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44400</v>
+        <v>44676</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M17" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44676</v>
+        <v>44669</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K18" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L18" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44627</v>
+        <v>44657</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L19" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M19" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44421</v>
+        <v>44760</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M20" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44382</v>
+        <v>44764</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
         <v>7000</v>
@@ -1878,7 +1878,7 @@
         <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>7438</v>
+        <v>7500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44589</v>
+        <v>44963</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K22" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L22" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M22" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44827</v>
+        <v>44281</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L2" t="n">
         <v>6000</v>
       </c>
-      <c r="L2" t="n">
-        <v>7000</v>
-      </c>
       <c r="M2" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44648</v>
+        <v>44382</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>6750</v>
+        <v>7438</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44421</v>
+        <v>44494</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44627</v>
+        <v>44935</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44603</v>
+        <v>44648</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44785</v>
+        <v>44627</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M7" t="n">
-        <v>7500</v>
+        <v>4250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44589</v>
+        <v>44362</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44740</v>
+        <v>44589</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L9" t="n">
         <v>6000</v>
       </c>
-      <c r="L9" t="n">
-        <v>7000</v>
-      </c>
       <c r="M9" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44362</v>
+        <v>44421</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
         <v>8000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44669</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M11" t="n">
-        <v>7438</v>
+        <v>4750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44281</v>
+        <v>44963</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K12" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M12" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44935</v>
+        <v>44657</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44967</v>
+        <v>44785</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,24 +1361,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K14" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>4850</v>
+        <v>7500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="Q14" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44400</v>
+        <v>44676</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L16" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M16" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44676</v>
+        <v>44967</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L17" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M17" t="n">
-        <v>4250</v>
+        <v>4850</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Q17" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44669</v>
+        <v>44764</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44657</v>
+        <v>44827</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44760</v>
+        <v>44603</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L20" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M20" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44764</v>
+        <v>44760</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K21" t="n">
         <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M21" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44963</v>
+        <v>44740</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44281</v>
+        <v>44242</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L2" t="n">
         <v>5500</v>
       </c>
-      <c r="L2" t="n">
-        <v>6000</v>
-      </c>
       <c r="M2" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44382</v>
+        <v>44764</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
         <v>7000</v>
@@ -582,7 +582,7 @@
         <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>7438</v>
+        <v>7500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44494</v>
+        <v>44935</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44935</v>
+        <v>44967</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M5" t="n">
-        <v>6500</v>
+        <v>4850</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Q5" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44648</v>
+        <v>44657</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M6" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44627</v>
+        <v>44669</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K7" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L7" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M7" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44362</v>
+        <v>44827</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44589</v>
+        <v>44421</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44494</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44669</v>
+        <v>44676</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L11" t="n">
         <v>4500</v>
       </c>
-      <c r="L11" t="n">
-        <v>5000</v>
-      </c>
       <c r="M11" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44963</v>
+        <v>44589</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44657</v>
+        <v>44785</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K13" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44785</v>
+        <v>44281</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44400</v>
+        <v>44963</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M15" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44676</v>
+        <v>44740</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44967</v>
+        <v>44648</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L17" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>4850</v>
+        <v>6750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="Q17" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44764</v>
+        <v>44382</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
         <v>7000</v>
@@ -1662,7 +1662,7 @@
         <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>7500</v>
+        <v>7438</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44827</v>
+        <v>44362</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1728,13 +1728,13 @@
         <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44603</v>
+        <v>44400</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>5750</v>
+        <v>9500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44760</v>
+        <v>44627</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L21" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M21" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44740</v>
+        <v>44603</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L22" t="n">
         <v>6000</v>
       </c>
-      <c r="L22" t="n">
-        <v>7000</v>
-      </c>
       <c r="M22" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44242</v>
+        <v>44760</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K23" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M23" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44242</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44764</v>
+        <v>44827</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>120</v>
       </c>
       <c r="K3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L3" t="n">
         <v>7000</v>
       </c>
-      <c r="L3" t="n">
-        <v>8000</v>
-      </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44935</v>
+        <v>44627</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M4" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44967</v>
+        <v>44362</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>4850</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="Q5" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44657</v>
+        <v>44494</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
         <v>5000</v>
       </c>
       <c r="L6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M6" t="n">
         <v>5500</v>
       </c>
-      <c r="M6" t="n">
-        <v>5250</v>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44669</v>
+        <v>44421</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44827</v>
+        <v>44764</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44421</v>
+        <v>44785</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L9" t="n">
         <v>8000</v>
       </c>
-      <c r="L9" t="n">
-        <v>9000</v>
-      </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44494</v>
+        <v>44281</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L10" t="n">
         <v>6000</v>
       </c>
       <c r="M10" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44676</v>
+        <v>44603</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L11" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44589</v>
+        <v>44740</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44785</v>
+        <v>44669</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>130</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44281</v>
+        <v>44935</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44963</v>
+        <v>44589</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K15" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44740</v>
+        <v>44242</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44648</v>
+        <v>44657</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M17" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44382</v>
+        <v>44967</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>7438</v>
+        <v>4850</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="Q18" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44362</v>
+        <v>44963</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44400</v>
+        <v>44382</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>9500</v>
+        <v>7438</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44627</v>
+        <v>44676</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44603</v>
+        <v>44760</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K22" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L22" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M22" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44760</v>
+        <v>44648</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L23" t="n">
         <v>7000</v>
       </c>
-      <c r="L23" t="n">
-        <v>7500</v>
-      </c>
       <c r="M23" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44785</v>
+        <v>45044</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>7500</v>
+        <v>4526</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44281</v>
+        <v>44785</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K10" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44603</v>
+        <v>44281</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
         <v>5500</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44740</v>
+        <v>44603</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L12" t="n">
         <v>6000</v>
       </c>
-      <c r="L12" t="n">
-        <v>7000</v>
-      </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44669</v>
+        <v>44740</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>4750</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44935</v>
+        <v>44669</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>4750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44589</v>
+        <v>44935</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44242</v>
+        <v>44589</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,17 +1509,17 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K16" t="n">
         <v>5000</v>
       </c>
       <c r="L16" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M16" t="n">
         <v>5500</v>
       </c>
-      <c r="M16" t="n">
-        <v>5250</v>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44657</v>
+        <v>44242</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
         <v>5000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44967</v>
+        <v>44657</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M18" t="n">
-        <v>4850</v>
+        <v>5250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44963</v>
+        <v>44967</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,24 +1721,24 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L19" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M19" t="n">
-        <v>4250</v>
+        <v>4850</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Q19" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44382</v>
+        <v>44963</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K20" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L20" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M20" t="n">
-        <v>7438</v>
+        <v>4250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44676</v>
+        <v>44382</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>4250</v>
+        <v>7438</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44760</v>
+        <v>44676</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L22" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M22" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44648</v>
+        <v>44760</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K23" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M23" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,12 +2035,84 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
       </c>
       <c r="R23" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>120</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>112</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>60</v>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44242</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M2" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44827</v>
+        <v>44589</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L3" t="n">
         <v>6000</v>
       </c>
-      <c r="L3" t="n">
-        <v>7000</v>
-      </c>
       <c r="M3" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44627</v>
+        <v>44676</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44362</v>
+        <v>44760</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44494</v>
+        <v>44362</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44421</v>
+        <v>44657</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44764</v>
+        <v>45044</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L8" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M8" t="n">
-        <v>7500</v>
+        <v>4526</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45044</v>
+        <v>44494</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>4526</v>
+        <v>5500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44785</v>
+        <v>44382</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
         <v>7000</v>
@@ -1086,7 +1086,7 @@
         <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>7500</v>
+        <v>7438</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44281</v>
+        <v>44935</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44603</v>
+        <v>44740</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44740</v>
+        <v>44281</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L13" t="n">
         <v>6000</v>
       </c>
-      <c r="L13" t="n">
-        <v>7000</v>
-      </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44669</v>
+        <v>44785</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>130</v>
       </c>
       <c r="K14" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44935</v>
+        <v>44764</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44589</v>
+        <v>44963</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L16" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M16" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44242</v>
+        <v>44627</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L17" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M17" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44657</v>
+        <v>44400</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44963</v>
+        <v>44421</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44382</v>
+        <v>44827</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L21" t="n">
         <v>7000</v>
       </c>
-      <c r="L21" t="n">
-        <v>8000</v>
-      </c>
       <c r="M21" t="n">
-        <v>7438</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44676</v>
+        <v>44669</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K22" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L22" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M22" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44760</v>
+        <v>44603</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L23" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M23" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44242</v>
+        <v>44967</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L2" t="n">
         <v>5000</v>
       </c>
-      <c r="L2" t="n">
-        <v>5500</v>
-      </c>
       <c r="M2" t="n">
-        <v>5250</v>
+        <v>4850</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44589</v>
+        <v>44676</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M3" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44676</v>
+        <v>45044</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K4" t="n">
         <v>4000</v>
       </c>
       <c r="L4" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>4250</v>
+        <v>4526</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44760</v>
+        <v>44603</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L5" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44362</v>
+        <v>44785</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K6" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L6" t="n">
         <v>8000</v>
       </c>
-      <c r="L6" t="n">
-        <v>9000</v>
-      </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44657</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45044</v>
+        <v>44935</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>4526</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44494</v>
+        <v>44589</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K9" t="n">
         <v>5000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44382</v>
+        <v>44362</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>7438</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44935</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>6500</v>
+        <v>7438</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44740</v>
+        <v>44963</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44281</v>
+        <v>44494</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L13" t="n">
         <v>6000</v>
       </c>
       <c r="M13" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44785</v>
+        <v>44740</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L14" t="n">
         <v>7000</v>
       </c>
-      <c r="L14" t="n">
-        <v>8000</v>
-      </c>
       <c r="M14" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44764</v>
+        <v>44760</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K15" t="n">
         <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44963</v>
+        <v>44648</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L16" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44627</v>
+        <v>44669</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K17" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L17" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M17" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44400</v>
+        <v>44657</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M18" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44967</v>
+        <v>44242</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,24 +1721,24 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M19" t="n">
-        <v>4850</v>
+        <v>5250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="Q19" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44421</v>
+        <v>44827</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44827</v>
+        <v>44421</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44669</v>
+        <v>44764</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L22" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44603</v>
+        <v>44627</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L23" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M23" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44648</v>
+        <v>44281</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2088,13 +2088,13 @@
         <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M24" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44589</v>
+        <v>45079</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L9" t="n">
         <v>5000</v>
       </c>
-      <c r="L9" t="n">
-        <v>6000</v>
-      </c>
       <c r="M9" t="n">
-        <v>5500</v>
+        <v>4462</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44362</v>
+        <v>44589</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44362</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>7438</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44963</v>
+        <v>44382</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>4250</v>
+        <v>7438</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44494</v>
+        <v>44963</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K13" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L13" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M13" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44740</v>
+        <v>44494</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L14" t="n">
         <v>6000</v>
       </c>
-      <c r="L14" t="n">
-        <v>7000</v>
-      </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44760</v>
+        <v>44740</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L15" t="n">
         <v>7000</v>
       </c>
-      <c r="L15" t="n">
-        <v>7500</v>
-      </c>
       <c r="M15" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44648</v>
+        <v>44760</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M16" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44669</v>
+        <v>44648</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L17" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44657</v>
+        <v>44669</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K18" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L18" t="n">
         <v>5000</v>
       </c>
-      <c r="L18" t="n">
-        <v>5500</v>
-      </c>
       <c r="M18" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44242</v>
+        <v>44657</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
         <v>5000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44827</v>
+        <v>44242</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44421</v>
+        <v>44827</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44764</v>
+        <v>44421</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44627</v>
+        <v>44764</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M23" t="n">
-        <v>4250</v>
+        <v>7500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44281</v>
+        <v>44627</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2088,31 +2088,103 @@
         <v>120</v>
       </c>
       <c r="K24" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>60</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44281</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>120</v>
+      </c>
+      <c r="K25" t="n">
         <v>5500</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>6000</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M25" t="n">
         <v>5750</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>$/caja 60 unidades</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
         <v>96</v>
       </c>
-      <c r="Q24" t="n">
-        <v>60</v>
-      </c>
-      <c r="R24" t="inlineStr">
+      <c r="Q25" t="n">
+        <v>60</v>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44967</v>
+        <v>44963</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L2" t="n">
         <v>4500</v>
       </c>
-      <c r="L2" t="n">
-        <v>5000</v>
-      </c>
       <c r="M2" t="n">
-        <v>4850</v>
+        <v>4250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44676</v>
+        <v>44382</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>4250</v>
+        <v>7438</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45044</v>
+        <v>44785</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="K4" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M4" t="n">
-        <v>4526</v>
+        <v>7500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44603</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44785</v>
+        <v>44669</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>130</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L6" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44648</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44935</v>
+        <v>44657</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45079</v>
+        <v>44967</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L9" t="n">
         <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>4462</v>
+        <v>4850</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="Q9" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44589</v>
+        <v>44760</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M10" t="n">
-        <v>5500</v>
+        <v>7250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44362</v>
+        <v>44494</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44382</v>
+        <v>44281</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L12" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>7438</v>
+        <v>5750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44963</v>
+        <v>44242</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L13" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M13" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44494</v>
+        <v>44935</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44740</v>
+        <v>45044</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>4526</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44760</v>
+        <v>45079</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L16" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M16" t="n">
-        <v>7250</v>
+        <v>4462</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44648</v>
+        <v>44400</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44669</v>
+        <v>44627</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L18" t="n">
         <v>4500</v>
       </c>
-      <c r="L18" t="n">
-        <v>5000</v>
-      </c>
       <c r="M18" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44657</v>
+        <v>44603</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L19" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M19" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44242</v>
+        <v>44589</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,17 +1797,17 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K20" t="n">
         <v>5000</v>
       </c>
       <c r="L20" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M20" t="n">
         <v>5500</v>
       </c>
-      <c r="M20" t="n">
-        <v>5250</v>
-      </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44421</v>
+        <v>44764</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L22" t="n">
         <v>8000</v>
       </c>
-      <c r="L22" t="n">
-        <v>9000</v>
-      </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44764</v>
+        <v>44676</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L23" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M23" t="n">
-        <v>7500</v>
+        <v>4250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44627</v>
+        <v>44740</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2088,13 +2088,13 @@
         <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44281</v>
+        <v>44362</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2160,13 +2160,13 @@
         <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L25" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44963</v>
+        <v>44967</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L2" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>4250</v>
+        <v>4850</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44382</v>
+        <v>44676</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M3" t="n">
-        <v>7438</v>
+        <v>4250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44785</v>
+        <v>45044</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L4" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>7500</v>
+        <v>4526</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44603</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44669</v>
+        <v>44785</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>130</v>
       </c>
       <c r="K6" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44648</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44657</v>
+        <v>44935</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44967</v>
+        <v>45079</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L9" t="n">
         <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>4850</v>
+        <v>4462</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="Q9" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44760</v>
+        <v>44589</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M10" t="n">
-        <v>7250</v>
+        <v>5500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44494</v>
+        <v>44362</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44281</v>
+        <v>44382</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>5750</v>
+        <v>7438</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44242</v>
+        <v>44963</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K13" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L13" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M13" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44935</v>
+        <v>44494</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L14" t="n">
         <v>6000</v>
       </c>
-      <c r="L14" t="n">
-        <v>7000</v>
-      </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45044</v>
+        <v>44740</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>4526</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45079</v>
+        <v>44760</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M16" t="n">
-        <v>4462</v>
+        <v>7250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44400</v>
+        <v>44648</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44627</v>
+        <v>44669</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K18" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L18" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44603</v>
+        <v>44657</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L19" t="n">
         <v>5500</v>
       </c>
-      <c r="L19" t="n">
-        <v>6000</v>
-      </c>
       <c r="M19" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44589</v>
+        <v>44242</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
         <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M20" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44764</v>
+        <v>44421</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44676</v>
+        <v>44764</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M23" t="n">
-        <v>4250</v>
+        <v>7500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44740</v>
+        <v>44627</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2088,13 +2088,13 @@
         <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44362</v>
+        <v>44281</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2160,13 +2160,13 @@
         <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M25" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44963</v>
+        <v>44603</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L2" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M2" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44382</v>
+        <v>44785</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K3" t="n">
         <v>7000</v>
@@ -582,7 +582,7 @@
         <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>7438</v>
+        <v>7500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44785</v>
+        <v>45044</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L4" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>7500</v>
+        <v>4526</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44494</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44669</v>
+        <v>44648</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44648</v>
+        <v>44589</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K7" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>6750</v>
+        <v>5500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44657</v>
+        <v>44421</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44967</v>
+        <v>44827</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>4850</v>
+        <v>6500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="Q9" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44760</v>
+        <v>44740</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L10" t="n">
         <v>7000</v>
       </c>
-      <c r="L10" t="n">
-        <v>7500</v>
-      </c>
       <c r="M10" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44494</v>
+        <v>44760</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M11" t="n">
-        <v>5500</v>
+        <v>7250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44281</v>
+        <v>45079</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K12" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M12" t="n">
-        <v>5750</v>
+        <v>4462</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44242</v>
+        <v>44935</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44935</v>
+        <v>44362</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45044</v>
+        <v>44764</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>4526</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45079</v>
+        <v>44963</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1515,10 +1515,10 @@
         <v>4000</v>
       </c>
       <c r="L16" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M16" t="n">
-        <v>4462</v>
+        <v>4250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44400</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>9500</v>
+        <v>7438</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44627</v>
+        <v>44242</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M18" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44603</v>
+        <v>44657</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L19" t="n">
         <v>5500</v>
       </c>
-      <c r="L19" t="n">
-        <v>6000</v>
-      </c>
       <c r="M19" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44589</v>
+        <v>44281</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L20" t="n">
         <v>6000</v>
       </c>
       <c r="M20" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44827</v>
+        <v>44676</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1872,13 +1872,13 @@
         <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44764</v>
+        <v>44669</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K22" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M22" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44676</v>
+        <v>44967</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,24 +2009,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L23" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M23" t="n">
-        <v>4250</v>
+        <v>4850</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Q23" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44740</v>
+        <v>44400</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2088,13 +2088,13 @@
         <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44362</v>
+        <v>44627</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2160,13 +2160,13 @@
         <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M25" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44603</v>
+        <v>44382</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>5750</v>
+        <v>7438</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44785</v>
+        <v>44740</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L3" t="n">
         <v>7000</v>
       </c>
-      <c r="L3" t="n">
-        <v>8000</v>
-      </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45044</v>
+        <v>44603</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L4" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>4526</v>
+        <v>5750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44494</v>
+        <v>44627</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M5" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44648</v>
+        <v>45044</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>6750</v>
+        <v>4526</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44589</v>
+        <v>44281</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L7" t="n">
         <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44421</v>
+        <v>44242</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44740</v>
+        <v>45079</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M10" t="n">
-        <v>6500</v>
+        <v>4462</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44760</v>
+        <v>44400</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45079</v>
+        <v>44785</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>130</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>4462</v>
+        <v>7500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44935</v>
+        <v>44764</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44362</v>
+        <v>44935</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44764</v>
+        <v>44676</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>4250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44963</v>
+        <v>44669</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L16" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M16" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44760</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K17" t="n">
         <v>7000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M17" t="n">
-        <v>7438</v>
+        <v>7250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44242</v>
+        <v>44657</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
         <v>5000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44657</v>
+        <v>44494</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,17 +1725,17 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
         <v>5000</v>
       </c>
       <c r="L19" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M19" t="n">
         <v>5500</v>
       </c>
-      <c r="M19" t="n">
-        <v>5250</v>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44281</v>
+        <v>44421</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44676</v>
+        <v>44362</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1872,13 +1872,13 @@
         <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44669</v>
+        <v>44963</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1944,13 +1944,13 @@
         <v>130</v>
       </c>
       <c r="K22" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L22" t="n">
         <v>4500</v>
       </c>
-      <c r="L22" t="n">
-        <v>5000</v>
-      </c>
       <c r="M22" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44967</v>
+        <v>44589</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,24 +2009,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K23" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L23" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M23" t="n">
-        <v>4850</v>
+        <v>5500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="Q23" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44400</v>
+        <v>44967</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,24 +2081,24 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K24" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L24" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M24" t="n">
-        <v>9500</v>
+        <v>4850</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="Q24" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44627</v>
+        <v>44648</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2160,13 +2160,13 @@
         <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L25" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44382</v>
+        <v>44669</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>7438</v>
+        <v>4750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44740</v>
+        <v>44627</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M3" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44603</v>
+        <v>44785</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K4" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M4" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44627</v>
+        <v>44764</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M5" t="n">
-        <v>4250</v>
+        <v>7500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45044</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>4526</v>
+        <v>9500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44281</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>5750</v>
+        <v>7438</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44242</v>
+        <v>44760</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M8" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44827</v>
+        <v>44362</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45079</v>
+        <v>44963</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1083,10 +1083,10 @@
         <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>4462</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44400</v>
+        <v>44740</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44785</v>
+        <v>44281</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L12" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44764</v>
+        <v>44827</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L13" t="n">
         <v>7000</v>
       </c>
-      <c r="L13" t="n">
-        <v>8000</v>
-      </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44935</v>
+        <v>44494</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L14" t="n">
         <v>6000</v>
       </c>
-      <c r="L14" t="n">
-        <v>7000</v>
-      </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44676</v>
+        <v>45044</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K15" t="n">
         <v>4000</v>
       </c>
       <c r="L15" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M15" t="n">
-        <v>4250</v>
+        <v>4526</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44669</v>
+        <v>44603</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L16" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M16" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44760</v>
+        <v>44648</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L17" t="n">
         <v>7000</v>
       </c>
-      <c r="L17" t="n">
-        <v>7500</v>
-      </c>
       <c r="M17" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44657</v>
+        <v>44967</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L18" t="n">
         <v>5000</v>
       </c>
-      <c r="L18" t="n">
-        <v>5500</v>
-      </c>
       <c r="M18" t="n">
-        <v>5250</v>
+        <v>4850</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="Q18" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44494</v>
+        <v>44421</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44421</v>
+        <v>44657</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1800,13 +1800,13 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M20" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44362</v>
+        <v>44676</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1872,13 +1872,13 @@
         <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44963</v>
+        <v>44935</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44589</v>
+        <v>45079</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K23" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L23" t="n">
         <v>5000</v>
       </c>
-      <c r="L23" t="n">
-        <v>6000</v>
-      </c>
       <c r="M23" t="n">
-        <v>5500</v>
+        <v>4462</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44967</v>
+        <v>44242</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,24 +2081,24 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L24" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M24" t="n">
-        <v>4850</v>
+        <v>5250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="Q24" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44648</v>
+        <v>44589</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K25" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M25" t="n">
-        <v>6750</v>
+        <v>5500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44669</v>
+        <v>44648</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L2" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44627</v>
+        <v>44967</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L3" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M3" t="n">
-        <v>4250</v>
+        <v>4850</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44785</v>
+        <v>44589</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44764</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44764</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44382</v>
+        <v>44669</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M7" t="n">
-        <v>7438</v>
+        <v>4750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44760</v>
+        <v>45044</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L8" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M8" t="n">
-        <v>7250</v>
+        <v>4526</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44362</v>
+        <v>44657</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44963</v>
+        <v>44760</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>130</v>
       </c>
       <c r="K10" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M10" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44740</v>
+        <v>44676</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M11" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44281</v>
+        <v>44362</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44827</v>
+        <v>44627</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44494</v>
+        <v>44242</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
         <v>5000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M14" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45044</v>
+        <v>44494</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>4526</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44603</v>
+        <v>44827</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44648</v>
+        <v>44963</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K17" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M17" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44967</v>
+        <v>44400</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>4850</v>
+        <v>9500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="Q18" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44421</v>
+        <v>45079</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>4462</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44657</v>
+        <v>44935</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44676</v>
+        <v>44281</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1872,13 +1872,13 @@
         <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L21" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M21" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44935</v>
+        <v>44785</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K22" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45079</v>
+        <v>44740</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L23" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>4462</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44242</v>
+        <v>44382</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2088,13 +2088,13 @@
         <v>160</v>
       </c>
       <c r="K24" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>5250</v>
+        <v>7438</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44589</v>
+        <v>44603</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K25" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L25" t="n">
         <v>6000</v>
       </c>
       <c r="M25" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44648</v>
+        <v>44669</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K2" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44967</v>
+        <v>44627</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L3" t="n">
         <v>4500</v>
       </c>
-      <c r="L3" t="n">
-        <v>5000</v>
-      </c>
       <c r="M3" t="n">
-        <v>4850</v>
+        <v>4250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44589</v>
+        <v>44785</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M4" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44764</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L5" t="n">
         <v>8000</v>
       </c>
-      <c r="L5" t="n">
-        <v>9000</v>
-      </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44764</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44669</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>4750</v>
+        <v>7438</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45044</v>
+        <v>44760</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="K8" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M8" t="n">
-        <v>4526</v>
+        <v>7250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44657</v>
+        <v>44362</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44760</v>
+        <v>44963</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>130</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44676</v>
+        <v>44740</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44362</v>
+        <v>44281</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44627</v>
+        <v>44827</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44242</v>
+        <v>44494</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,17 +1365,17 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
         <v>5000</v>
       </c>
       <c r="L14" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M14" t="n">
         <v>5500</v>
       </c>
-      <c r="M14" t="n">
-        <v>5250</v>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44494</v>
+        <v>45044</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K15" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L15" t="n">
         <v>5000</v>
       </c>
-      <c r="L15" t="n">
-        <v>6000</v>
-      </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>4526</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44827</v>
+        <v>44603</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L16" t="n">
         <v>6000</v>
       </c>
-      <c r="L16" t="n">
-        <v>7000</v>
-      </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44963</v>
+        <v>44648</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L17" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44400</v>
+        <v>44967</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>9500</v>
+        <v>4850</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="Q18" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45079</v>
+        <v>44421</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>4462</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44935</v>
+        <v>44657</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44281</v>
+        <v>44676</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1872,13 +1872,13 @@
         <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L21" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M21" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44785</v>
+        <v>44935</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L22" t="n">
         <v>7000</v>
       </c>
-      <c r="L22" t="n">
-        <v>8000</v>
-      </c>
       <c r="M22" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44740</v>
+        <v>45079</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K23" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M23" t="n">
-        <v>6500</v>
+        <v>4462</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44382</v>
+        <v>44242</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2088,13 +2088,13 @@
         <v>160</v>
       </c>
       <c r="K24" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M24" t="n">
-        <v>7438</v>
+        <v>5250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44603</v>
+        <v>44589</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K25" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L25" t="n">
         <v>6000</v>
       </c>
       <c r="M25" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44648</v>
+        <v>44827</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
         <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44967</v>
+        <v>45079</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K3" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L3" t="n">
         <v>5000</v>
       </c>
       <c r="M3" t="n">
-        <v>4850</v>
+        <v>4462</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="Q3" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44589</v>
+        <v>44740</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44400</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44764</v>
+        <v>44648</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L6" t="n">
         <v>7000</v>
       </c>
-      <c r="L6" t="n">
-        <v>8000</v>
-      </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44669</v>
+        <v>44603</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45044</v>
+        <v>44627</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
         <v>4000</v>
       </c>
       <c r="L8" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M8" t="n">
-        <v>4526</v>
+        <v>4250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44657</v>
+        <v>44785</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44760</v>
+        <v>44589</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M10" t="n">
-        <v>7250</v>
+        <v>5500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44676</v>
+        <v>44281</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L11" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44362</v>
+        <v>44676</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44627</v>
+        <v>44421</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44242</v>
+        <v>45044</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K14" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L14" t="n">
         <v>5000</v>
       </c>
-      <c r="L14" t="n">
-        <v>5500</v>
-      </c>
       <c r="M14" t="n">
-        <v>5250</v>
+        <v>4526</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44494</v>
+        <v>44935</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44827</v>
+        <v>44764</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44963</v>
+        <v>44760</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>130</v>
       </c>
       <c r="K17" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L17" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M17" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44400</v>
+        <v>44657</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M18" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45079</v>
+        <v>44963</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1731,10 +1731,10 @@
         <v>4000</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M19" t="n">
-        <v>4462</v>
+        <v>4250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44935</v>
+        <v>44669</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>4750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44281</v>
+        <v>44382</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>5750</v>
+        <v>7438</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44785</v>
+        <v>44967</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,24 +1937,24 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M22" t="n">
-        <v>7500</v>
+        <v>4850</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="Q22" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44740</v>
+        <v>44494</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>120</v>
       </c>
       <c r="K23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L23" t="n">
         <v>6000</v>
       </c>
-      <c r="L23" t="n">
-        <v>7000</v>
-      </c>
       <c r="M23" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44382</v>
+        <v>44362</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>7438</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44603</v>
+        <v>44242</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L25" t="n">
         <v>5500</v>
       </c>
-      <c r="L25" t="n">
-        <v>6000</v>
-      </c>
       <c r="M25" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44827</v>
+        <v>44648</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L2" t="n">
         <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45079</v>
+        <v>44967</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L3" t="n">
         <v>5000</v>
       </c>
       <c r="M3" t="n">
-        <v>4462</v>
+        <v>4850</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44740</v>
+        <v>44589</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L4" t="n">
         <v>6000</v>
       </c>
-      <c r="L4" t="n">
-        <v>7000</v>
-      </c>
       <c r="M4" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L5" t="n">
         <v>9000</v>
       </c>
-      <c r="L5" t="n">
-        <v>10000</v>
-      </c>
       <c r="M5" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44648</v>
+        <v>44764</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44603</v>
+        <v>44669</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K7" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M7" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44627</v>
+        <v>45044</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K8" t="n">
         <v>4000</v>
       </c>
       <c r="L8" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M8" t="n">
-        <v>4250</v>
+        <v>4526</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44785</v>
+        <v>44657</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M9" t="n">
-        <v>7500</v>
+        <v>5250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44589</v>
+        <v>44760</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M10" t="n">
-        <v>5500</v>
+        <v>7250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44281</v>
+        <v>44676</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M11" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44676</v>
+        <v>44362</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44421</v>
+        <v>44627</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45044</v>
+        <v>44242</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M14" t="n">
-        <v>4526</v>
+        <v>5250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44935</v>
+        <v>44494</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L15" t="n">
         <v>6000</v>
       </c>
-      <c r="L15" t="n">
-        <v>7000</v>
-      </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44764</v>
+        <v>44827</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>120</v>
       </c>
       <c r="K16" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L16" t="n">
         <v>7000</v>
       </c>
-      <c r="L16" t="n">
-        <v>8000</v>
-      </c>
       <c r="M16" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44760</v>
+        <v>44963</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>130</v>
       </c>
       <c r="K17" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L17" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M17" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44657</v>
+        <v>44400</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44963</v>
+        <v>45079</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1731,10 +1731,10 @@
         <v>4000</v>
       </c>
       <c r="L19" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M19" t="n">
-        <v>4250</v>
+        <v>4462</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44669</v>
+        <v>44935</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>4750</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44382</v>
+        <v>44281</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L21" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M21" t="n">
-        <v>7438</v>
+        <v>5750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44967</v>
+        <v>44785</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,24 +1937,24 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K22" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L22" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>4850</v>
+        <v>7500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="Q22" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44494</v>
+        <v>44740</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L23" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L24" t="n">
         <v>8000</v>
       </c>
-      <c r="L24" t="n">
-        <v>9000</v>
-      </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44242</v>
+        <v>44603</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K25" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L25" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M25" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44589</v>
+        <v>45177</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
         <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M10" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44281</v>
+        <v>44589</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K11" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
         <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44676</v>
+        <v>44281</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L12" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44421</v>
+        <v>44676</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45044</v>
+        <v>44421</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>4526</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44935</v>
+        <v>45044</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>4526</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44764</v>
+        <v>44935</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>120</v>
       </c>
       <c r="K16" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L16" t="n">
         <v>7000</v>
       </c>
-      <c r="L16" t="n">
-        <v>8000</v>
-      </c>
       <c r="M16" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44760</v>
+        <v>44764</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,17 +1581,17 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
         <v>7000</v>
       </c>
       <c r="L17" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M17" t="n">
         <v>7500</v>
       </c>
-      <c r="M17" t="n">
-        <v>7250</v>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44657</v>
+        <v>44760</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M18" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44963</v>
+        <v>44657</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L19" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M19" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44669</v>
+        <v>44963</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1800,13 +1800,13 @@
         <v>130</v>
       </c>
       <c r="K20" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L20" t="n">
         <v>4500</v>
       </c>
-      <c r="L20" t="n">
-        <v>5000</v>
-      </c>
       <c r="M20" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44382</v>
+        <v>44669</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K21" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L21" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M21" t="n">
-        <v>7438</v>
+        <v>4750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44967</v>
+        <v>44382</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,24 +1937,24 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K22" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L22" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>4850</v>
+        <v>7438</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="Q22" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44494</v>
+        <v>44967</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,24 +2009,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L23" t="n">
         <v>5000</v>
       </c>
-      <c r="L23" t="n">
-        <v>6000</v>
-      </c>
       <c r="M23" t="n">
-        <v>5500</v>
+        <v>4850</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="Q23" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44362</v>
+        <v>44494</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2088,13 +2088,13 @@
         <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,58 +2133,130 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
+        <v>44362</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>120</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>142</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>60</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>44242</v>
       </c>
-      <c r="E25" t="n">
-        <v>15</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100112001</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Berenjena</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
         <v>160</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K26" t="n">
         <v>5000</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>5500</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M26" t="n">
         <v>5250</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>$/caja 60 unidades</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
         <v>88</v>
       </c>
-      <c r="Q25" t="n">
-        <v>60</v>
-      </c>
-      <c r="R25" t="inlineStr">
+      <c r="Q26" t="n">
+        <v>60</v>
+      </c>
+      <c r="R26" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44827</v>
+        <v>45079</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K2" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>6500</v>
+        <v>4462</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45079</v>
+        <v>44967</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L3" t="n">
         <v>5000</v>
       </c>
       <c r="M3" t="n">
-        <v>4462</v>
+        <v>4850</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44740</v>
+        <v>44935</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44603</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44648</v>
+        <v>44760</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M6" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44603</v>
+        <v>44657</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L7" t="n">
         <v>5500</v>
       </c>
-      <c r="L7" t="n">
-        <v>6000</v>
-      </c>
       <c r="M7" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44627</v>
+        <v>44589</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K8" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44785</v>
+        <v>44827</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L9" t="n">
         <v>7000</v>
       </c>
-      <c r="L9" t="n">
-        <v>8000</v>
-      </c>
       <c r="M9" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45177</v>
+        <v>44494</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,17 +1077,17 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
         <v>5000</v>
       </c>
       <c r="L10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M10" t="n">
         <v>5500</v>
       </c>
-      <c r="M10" t="n">
-        <v>5250</v>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44589</v>
+        <v>44648</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44676</v>
+        <v>44764</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>4250</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45044</v>
+        <v>44669</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="K15" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L15" t="n">
         <v>5000</v>
       </c>
       <c r="M15" t="n">
-        <v>4526</v>
+        <v>4750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44935</v>
+        <v>45177</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44764</v>
+        <v>44242</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>5250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44760</v>
+        <v>44627</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L18" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M18" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44657</v>
+        <v>44963</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L19" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M19" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44963</v>
+        <v>44400</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>4250</v>
+        <v>9500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44669</v>
+        <v>44740</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>4750</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44382</v>
+        <v>45044</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K22" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M22" t="n">
-        <v>7438</v>
+        <v>4526</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44967</v>
+        <v>44785</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,24 +2009,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K23" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M23" t="n">
-        <v>4850</v>
+        <v>7500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="Q23" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44494</v>
+        <v>44676</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2088,13 +2088,13 @@
         <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L24" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M24" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44242</v>
+        <v>44382</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2232,13 +2232,13 @@
         <v>160</v>
       </c>
       <c r="K26" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>5250</v>
+        <v>7438</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="Q26" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45079</v>
+        <v>44669</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>130</v>
       </c>
       <c r="K2" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L2" t="n">
         <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>4462</v>
+        <v>4750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44967</v>
+        <v>44603</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L3" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M3" t="n">
-        <v>4850</v>
+        <v>5750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="Q3" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44935</v>
+        <v>44657</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M4" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44603</v>
+        <v>44676</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M5" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44760</v>
+        <v>44963</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>130</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L6" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M6" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44657</v>
+        <v>45177</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
         <v>5000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44589</v>
+        <v>44967</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L8" t="n">
         <v>5000</v>
       </c>
-      <c r="L8" t="n">
-        <v>6000</v>
-      </c>
       <c r="M8" t="n">
-        <v>5500</v>
+        <v>4850</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="Q8" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44827</v>
+        <v>44589</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L9" t="n">
         <v>6000</v>
       </c>
-      <c r="L9" t="n">
-        <v>7000</v>
-      </c>
       <c r="M9" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44494</v>
+        <v>44627</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44648</v>
+        <v>44764</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44281</v>
+        <v>44648</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44764</v>
+        <v>44827</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L13" t="n">
         <v>7000</v>
       </c>
-      <c r="L13" t="n">
-        <v>8000</v>
-      </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44421</v>
+        <v>44935</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44669</v>
+        <v>44760</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>130</v>
       </c>
       <c r="K15" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M15" t="n">
-        <v>4750</v>
+        <v>7250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45177</v>
+        <v>45079</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K16" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L16" t="n">
         <v>5000</v>
       </c>
-      <c r="L16" t="n">
-        <v>5500</v>
-      </c>
       <c r="M16" t="n">
-        <v>5250</v>
+        <v>4462</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44242</v>
+        <v>44400</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L17" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44627</v>
+        <v>44362</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1656,13 +1656,13 @@
         <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44963</v>
+        <v>44740</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44400</v>
+        <v>44382</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>9500</v>
+        <v>7438</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44740</v>
+        <v>44785</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45044</v>
+        <v>44421</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>4526</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44785</v>
+        <v>44494</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L23" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M23" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44676</v>
+        <v>44242</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L24" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M24" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44362</v>
+        <v>45044</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K25" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M25" t="n">
-        <v>8500</v>
+        <v>4526</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44382</v>
+        <v>44281</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K26" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L26" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M26" t="n">
-        <v>7438</v>
+        <v>5750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="Q26" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44669</v>
+        <v>44740</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>4750</v>
+        <v>6500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44603</v>
+        <v>44963</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K3" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M3" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44657</v>
+        <v>45079</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L4" t="n">
         <v>5000</v>
       </c>
-      <c r="L4" t="n">
-        <v>5500</v>
-      </c>
       <c r="M4" t="n">
-        <v>5250</v>
+        <v>4462</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44676</v>
+        <v>44967</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L5" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M5" t="n">
-        <v>4250</v>
+        <v>4850</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Q5" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44963</v>
+        <v>44657</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M6" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45177</v>
+        <v>44669</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K7" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L7" t="n">
         <v>5000</v>
       </c>
-      <c r="L7" t="n">
-        <v>5500</v>
-      </c>
       <c r="M7" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44967</v>
+        <v>44627</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L8" t="n">
         <v>4500</v>
       </c>
-      <c r="L8" t="n">
-        <v>5000</v>
-      </c>
       <c r="M8" t="n">
-        <v>4850</v>
+        <v>4250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44589</v>
+        <v>44676</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L9" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M9" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44627</v>
+        <v>44785</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K10" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>4250</v>
+        <v>7500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44764</v>
+        <v>44648</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L11" t="n">
         <v>7000</v>
       </c>
-      <c r="L11" t="n">
-        <v>8000</v>
-      </c>
       <c r="M11" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44648</v>
+        <v>44421</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44827</v>
+        <v>44589</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L13" t="n">
         <v>6000</v>
       </c>
-      <c r="L13" t="n">
-        <v>7000</v>
-      </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44935</v>
+        <v>44281</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L14" t="n">
         <v>6000</v>
       </c>
-      <c r="L14" t="n">
-        <v>7000</v>
-      </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44760</v>
+        <v>44603</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L15" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45079</v>
+        <v>44935</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>4462</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44362</v>
+        <v>45044</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>8500</v>
+        <v>4526</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44740</v>
+        <v>44764</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1728,13 +1728,13 @@
         <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44382</v>
+        <v>44760</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K20" t="n">
         <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M20" t="n">
-        <v>7438</v>
+        <v>7250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44785</v>
+        <v>44242</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L21" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M21" t="n">
-        <v>7500</v>
+        <v>5250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44421</v>
+        <v>44827</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44494</v>
+        <v>44362</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44242</v>
+        <v>44494</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,17 +2085,17 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
         <v>5000</v>
       </c>
       <c r="L24" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M24" t="n">
         <v>5500</v>
       </c>
-      <c r="M24" t="n">
-        <v>5250</v>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45044</v>
+        <v>45177</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L25" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M25" t="n">
-        <v>4526</v>
+        <v>5250</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44281</v>
+        <v>44382</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K26" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>5750</v>
+        <v>7438</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="Q26" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44740</v>
+        <v>44963</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K2" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M2" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44963</v>
+        <v>44785</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>130</v>
       </c>
       <c r="K3" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>4250</v>
+        <v>7500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45079</v>
+        <v>44421</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>4462</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44967</v>
+        <v>44827</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>4850</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="Q5" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44657</v>
+        <v>44648</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44669</v>
+        <v>45079</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>130</v>
       </c>
       <c r="K7" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L7" t="n">
         <v>5000</v>
       </c>
       <c r="M7" t="n">
-        <v>4750</v>
+        <v>4462</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44627</v>
+        <v>44657</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M8" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44676</v>
+        <v>45044</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K9" t="n">
         <v>4000</v>
       </c>
       <c r="L9" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>4250</v>
+        <v>4526</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44785</v>
+        <v>44967</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L10" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M10" t="n">
-        <v>7500</v>
+        <v>4850</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="Q10" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44648</v>
+        <v>44362</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44421</v>
+        <v>44382</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L12" t="n">
         <v>8000</v>
       </c>
-      <c r="L12" t="n">
-        <v>9000</v>
-      </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44589</v>
+        <v>44281</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L13" t="n">
         <v>6000</v>
       </c>
       <c r="M13" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44281</v>
+        <v>44935</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44603</v>
+        <v>44764</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44935</v>
+        <v>44627</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44400</v>
+        <v>44740</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45044</v>
+        <v>44400</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>4526</v>
+        <v>9500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44764</v>
+        <v>44589</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K19" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M19" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44760</v>
+        <v>45177</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M20" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44242</v>
+        <v>44494</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,17 +1869,17 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
         <v>5000</v>
       </c>
       <c r="L21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M21" t="n">
         <v>5500</v>
       </c>
-      <c r="M21" t="n">
-        <v>5250</v>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44827</v>
+        <v>44676</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1944,13 +1944,13 @@
         <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M22" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44362</v>
+        <v>44760</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M23" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44494</v>
+        <v>44242</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
         <v>5000</v>
       </c>
       <c r="L24" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M24" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45177</v>
+        <v>44669</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K25" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L25" t="n">
         <v>5000</v>
       </c>
-      <c r="L25" t="n">
-        <v>5500</v>
-      </c>
       <c r="M25" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44382</v>
+        <v>44603</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L26" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M26" t="n">
-        <v>7438</v>
+        <v>5750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="Q26" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44963</v>
+        <v>45079</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -507,10 +507,10 @@
         <v>4000</v>
       </c>
       <c r="L2" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>4250</v>
+        <v>4462</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44785</v>
+        <v>44281</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44421</v>
+        <v>44242</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44827</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44648</v>
+        <v>44494</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>6750</v>
+        <v>5500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45079</v>
+        <v>45177</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M7" t="n">
-        <v>4462</v>
+        <v>5250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44657</v>
+        <v>44785</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M8" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45044</v>
+        <v>44627</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
         <v>4000</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M9" t="n">
-        <v>4526</v>
+        <v>4250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44967</v>
+        <v>44963</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L10" t="n">
         <v>4500</v>
       </c>
-      <c r="L10" t="n">
-        <v>5000</v>
-      </c>
       <c r="M10" t="n">
-        <v>4850</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44362</v>
+        <v>44400</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44382</v>
+        <v>44669</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L12" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M12" t="n">
-        <v>7438</v>
+        <v>4750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44281</v>
+        <v>44827</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44935</v>
+        <v>44676</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44764</v>
+        <v>44382</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
         <v>7000</v>
@@ -1446,7 +1446,7 @@
         <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>7438</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44627</v>
+        <v>44362</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44740</v>
+        <v>44967</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M17" t="n">
-        <v>6500</v>
+        <v>4850</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Q17" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44400</v>
+        <v>44740</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1656,13 +1656,13 @@
         <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44589</v>
+        <v>44657</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
         <v>5000</v>
       </c>
       <c r="L19" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M19" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45177</v>
+        <v>44760</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M20" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44494</v>
+        <v>44603</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L21" t="n">
         <v>6000</v>
       </c>
       <c r="M21" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44676</v>
+        <v>44648</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1944,13 +1944,13 @@
         <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L22" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44760</v>
+        <v>44935</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L23" t="n">
         <v>7000</v>
       </c>
-      <c r="L23" t="n">
-        <v>7500</v>
-      </c>
       <c r="M23" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44242</v>
+        <v>44764</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44669</v>
+        <v>45044</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="K25" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L25" t="n">
         <v>5000</v>
       </c>
       <c r="M25" t="n">
-        <v>4750</v>
+        <v>4526</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44603</v>
+        <v>44589</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K26" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L26" t="n">
         <v>6000</v>
       </c>
       <c r="M26" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q26" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44400</v>
+        <v>45243</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44669</v>
+        <v>44400</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44827</v>
+        <v>44669</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>4750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44676</v>
+        <v>44827</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44382</v>
+        <v>44676</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M15" t="n">
-        <v>7438</v>
+        <v>4250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L16" t="n">
         <v>8000</v>
       </c>
-      <c r="L16" t="n">
-        <v>9000</v>
-      </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44967</v>
+        <v>44362</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>4850</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="Q17" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44740</v>
+        <v>44967</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>4850</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Q18" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44657</v>
+        <v>44740</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44760</v>
+        <v>44657</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M20" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44603</v>
+        <v>44760</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K21" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M21" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44648</v>
+        <v>44603</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M22" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44935</v>
+        <v>44648</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L23" t="n">
         <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44764</v>
+        <v>44935</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2088,13 +2088,13 @@
         <v>120</v>
       </c>
       <c r="K24" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L24" t="n">
         <v>7000</v>
       </c>
-      <c r="L24" t="n">
-        <v>8000</v>
-      </c>
       <c r="M24" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45044</v>
+        <v>44764</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L25" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M25" t="n">
-        <v>4526</v>
+        <v>7500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>
@@ -2205,58 +2205,130 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>190</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4526</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>60</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
         <v>44589</v>
       </c>
-      <c r="E26" t="n">
-        <v>15</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100112001</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Berenjena</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
+      <c r="E27" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100112001</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Berenjena</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
         <v>110</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K27" t="n">
         <v>5000</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>6000</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M27" t="n">
         <v>5500</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>$/caja 60 unidades</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
         <v>92</v>
       </c>
-      <c r="Q26" t="n">
-        <v>60</v>
-      </c>
-      <c r="R26" t="inlineStr">
+      <c r="Q27" t="n">
+        <v>60</v>
+      </c>
+      <c r="R27" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45079</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>4462</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44281</v>
+        <v>44963</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K3" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M3" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44242</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M4" t="n">
-        <v>5250</v>
+        <v>7438</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44648</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44494</v>
+        <v>44785</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45177</v>
+        <v>44935</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L7" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44785</v>
+        <v>44589</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44627</v>
+        <v>45177</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M9" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44963</v>
+        <v>44657</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M10" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45243</v>
+        <v>44281</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44400</v>
+        <v>44242</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M12" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44669</v>
+        <v>44967</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,11 +1289,11 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
         <v>4500</v>
@@ -1302,11 +1302,11 @@
         <v>5000</v>
       </c>
       <c r="M13" t="n">
-        <v>4750</v>
+        <v>4850</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="Q13" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44827</v>
+        <v>44494</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L14" t="n">
         <v>6000</v>
       </c>
-      <c r="L14" t="n">
-        <v>7000</v>
-      </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44676</v>
+        <v>44827</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44382</v>
+        <v>44760</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K16" t="n">
         <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M16" t="n">
-        <v>7438</v>
+        <v>7250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44967</v>
+        <v>44400</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>4850</v>
+        <v>9500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="Q18" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44657</v>
+        <v>44627</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L20" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M20" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44760</v>
+        <v>44764</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,17 +1869,17 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
         <v>7000</v>
       </c>
       <c r="L21" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M21" t="n">
         <v>7500</v>
       </c>
-      <c r="M21" t="n">
-        <v>7250</v>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44648</v>
+        <v>45079</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K23" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M23" t="n">
-        <v>6750</v>
+        <v>4462</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44935</v>
+        <v>44676</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2088,13 +2088,13 @@
         <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44764</v>
+        <v>44669</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K25" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L25" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M25" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45044</v>
+        <v>45243</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K26" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>4526</v>
+        <v>7500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Q26" t="n">
         <v>60</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44589</v>
+        <v>45044</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="K27" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L27" t="n">
         <v>5000</v>
       </c>
-      <c r="L27" t="n">
-        <v>6000</v>
-      </c>
       <c r="M27" t="n">
-        <v>5500</v>
+        <v>4526</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="Q27" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>45079</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>4462</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44963</v>
+        <v>44281</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L3" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M3" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44242</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M4" t="n">
-        <v>7438</v>
+        <v>5250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44648</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44785</v>
+        <v>44494</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44935</v>
+        <v>45177</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M7" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44589</v>
+        <v>44785</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M8" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45177</v>
+        <v>44627</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L9" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M9" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44657</v>
+        <v>44963</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44281</v>
+        <v>45243</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44242</v>
+        <v>44400</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44967</v>
+        <v>44669</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,11 +1289,11 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K13" t="n">
         <v>4500</v>
@@ -1302,11 +1302,11 @@
         <v>5000</v>
       </c>
       <c r="M13" t="n">
-        <v>4850</v>
+        <v>4750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="Q13" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44494</v>
+        <v>44827</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44827</v>
+        <v>44676</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44760</v>
+        <v>44382</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
         <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>7250</v>
+        <v>7438</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44400</v>
+        <v>44967</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>9500</v>
+        <v>4850</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="Q18" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44627</v>
+        <v>44657</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M20" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44764</v>
+        <v>44760</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K21" t="n">
         <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M21" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45079</v>
+        <v>44648</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L23" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>4462</v>
+        <v>6750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44676</v>
+        <v>44935</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2088,13 +2088,13 @@
         <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44669</v>
+        <v>44764</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L25" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M25" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45243</v>
+        <v>45044</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K26" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L26" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M26" t="n">
-        <v>7500</v>
+        <v>4526</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q26" t="n">
         <v>60</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45044</v>
+        <v>44589</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="K27" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L27" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M27" t="n">
-        <v>4526</v>
+        <v>5500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="Q27" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44648</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44963</v>
+        <v>44967</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L3" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M3" t="n">
-        <v>4250</v>
+        <v>4850</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44935</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L4" t="n">
         <v>7000</v>
       </c>
-      <c r="L4" t="n">
-        <v>8000</v>
-      </c>
       <c r="M4" t="n">
-        <v>7438</v>
+        <v>6500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44648</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M5" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44785</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44935</v>
+        <v>44627</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M7" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44589</v>
+        <v>44740</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45177</v>
+        <v>44760</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M9" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44657</v>
+        <v>44281</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L10" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M10" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44281</v>
+        <v>44963</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M11" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44242</v>
+        <v>44676</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M12" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44967</v>
+        <v>44400</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,24 +1289,24 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>4850</v>
+        <v>9500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="Q13" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44494</v>
+        <v>44827</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44827</v>
+        <v>45079</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>4462</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44760</v>
+        <v>44764</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,17 +1509,17 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
         <v>7000</v>
       </c>
       <c r="L16" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M16" t="n">
         <v>7500</v>
       </c>
-      <c r="M16" t="n">
-        <v>7250</v>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>$/caja 60 unidades</t>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L17" t="n">
         <v>8000</v>
       </c>
-      <c r="L17" t="n">
-        <v>9000</v>
-      </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>7438</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44400</v>
+        <v>45243</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1656,13 +1656,13 @@
         <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44740</v>
+        <v>44785</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44627</v>
+        <v>44669</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K20" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L20" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M20" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44764</v>
+        <v>44494</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1872,13 +1872,13 @@
         <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L21" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M21" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44603</v>
+        <v>45044</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="K22" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L22" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M22" t="n">
-        <v>5750</v>
+        <v>4526</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45079</v>
+        <v>44657</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L23" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M23" t="n">
-        <v>4462</v>
+        <v>5250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44676</v>
+        <v>44589</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K24" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L24" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M24" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44669</v>
+        <v>44603</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K25" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L25" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M25" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45243</v>
+        <v>44362</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2232,13 +2232,13 @@
         <v>120</v>
       </c>
       <c r="K26" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="Q26" t="n">
         <v>60</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45044</v>
+        <v>45177</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L27" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M27" t="n">
-        <v>4526</v>
+        <v>5250</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Q27" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Berenjena.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44648</v>
+        <v>44935</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
         <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44967</v>
+        <v>44963</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L3" t="n">
         <v>4500</v>
       </c>
-      <c r="L3" t="n">
-        <v>5000</v>
-      </c>
       <c r="M3" t="n">
-        <v>4850</v>
+        <v>4250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 90 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44935</v>
+        <v>44589</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L4" t="n">
         <v>6000</v>
       </c>
-      <c r="L4" t="n">
-        <v>7000</v>
-      </c>
       <c r="M4" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44400</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44967</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>4850</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 90 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="Q6" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44627</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>4250</v>
+        <v>7438</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44740</v>
+        <v>44421</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44760</v>
+        <v>44494</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>7250</v>
+        <v>5500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44281</v>
+        <v>45243</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44963</v>
+        <v>44281</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L11" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44400</v>
+        <v>44740</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44827</v>
+        <v>44657</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45079</v>
+        <v>44760</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>130</v>
       </c>
       <c r="K15" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M15" t="n">
-        <v>4462</v>
+        <v>7250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44764</v>
+        <v>44648</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>120</v>
       </c>
       <c r="K16" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L16" t="n">
         <v>7000</v>
       </c>
-      <c r="L16" t="n">
-        <v>8000</v>
-      </c>
       <c r="M16" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44669</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K17" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M17" t="n">
-        <v>7438</v>
+        <v>4750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="Q17" t="n">
         <v>60</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45243</v>
+        <v>45044</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K18" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>7500</v>
+        <v>4526</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q18" t="n">
         <v>60</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44785</v>
+        <v>44764</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
         <v>7000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44669</v>
+        <v>44362</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="Q20" t="n">
         <v>60</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44494</v>
+        <v>44242</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
         <v>5000</v>
       </c>
       <c r="L21" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M21" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45044</v>
+        <v>44603</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L22" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M22" t="n">
-        <v>4526</v>
+        <v>5750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="Q22" t="n">
         <v>60</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44657</v>
+        <v>44785</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K23" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M23" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="Q23" t="n">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44589</v>
+        <v>44827</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q24" t="n">
         <v>60</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44603</v>
+        <v>45079</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K25" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L25" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M25" t="n">
-        <v>5750</v>
+        <v>4462</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="Q25" t="n">
         <v>60</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44362</v>
+        <v>44627</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2232,13 +2232,13 @@
         <v>120</v>
       </c>
       <c r="K26" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="Q26" t="n">
         <v>60</v>
